--- a/data/residents/test_scores_2.xlsx
+++ b/data/residents/test_scores_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,9 +35,11 @@
     <sheet name="Sheet26" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="Sheet27" sheetId="26" state="visible" r:id="rId27"/>
     <sheet name="Sheet28" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Sheet29" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="29" state="visible" r:id="rId30"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" name="AACOMdate" vbProcedure="false">[1]Settings!$B$13</definedName>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="41">
   <si>
     <t xml:space="preserve">Anesthesiology</t>
   </si>
@@ -183,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vascular Surgery-Integrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Surgery: Categorical</t>
   </si>
 </sst>
 </file>
@@ -337,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,7 +352,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -420,6 +425,14 @@
     </xf>
     <xf numFmtId="167" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -550,11 +563,11 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="1" sqref="A1:K23 A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1325,10 +1338,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="1" sqref="A1:K23 B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2099,10 +2112,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="1" sqref="A1:K23 C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2873,10 +2886,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="1" sqref="A1:K23 B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3647,10 +3660,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="A1:K23 C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4421,10 +4434,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="A1:K23 C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5195,10 +5208,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5969,10 +5982,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="A1:K23 C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6743,10 +6756,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="A1:K23 C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7517,10 +7530,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="1" sqref="A1:K23 B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8291,10 +8304,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:K23 B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9065,10 +9078,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9839,10 +9852,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="1" sqref="A1:K23 D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10613,10 +10626,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="A1:K23 C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11387,10 +11400,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12161,10 +12174,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12935,10 +12948,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13709,10 +13722,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="1" sqref="A1:K23 B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14483,10 +14496,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15257,10 +15270,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16002,6 +16015,1554 @@
       </c>
       <c r="J23" s="20" t="n">
         <v>0.183</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="A1:K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <v>49</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J7" s="20" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>65</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>62</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>95</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>130</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I11" s="20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="I14" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I15" s="20" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K15" s="20" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="19" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H19" s="18" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>79</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <v>224</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>362</v>
+      </c>
+      <c r="I22" s="16" t="n">
+        <v>364</v>
+      </c>
+      <c r="J22" s="16" t="n">
+        <v>238</v>
+      </c>
+      <c r="K22" s="16" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D23" s="19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="I23" s="20" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <v>37</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J7" s="20" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="I11" s="20" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J11" s="20" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="20" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>78</v>
+      </c>
+      <c r="I22" s="16" t="n">
+        <v>95</v>
+      </c>
+      <c r="J22" s="16" t="n">
+        <v>115</v>
+      </c>
+      <c r="K22" s="16" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G23" s="19" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I23" s="20" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>0.362</v>
       </c>
       <c r="K23" s="20" t="n">
         <v>1</v>
@@ -16031,10 +17592,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16805,10 +18366,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17579,10 +19140,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18353,10 +19914,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19127,10 +20688,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19901,10 +21462,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -20675,10 +22236,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="1" sqref="A1:K23 E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
